--- a/web/sugeridosexcels/mocho.xlsx
+++ b/web/sugeridosexcels/mocho.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cialesymf\web\sugeridosexcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CM\Compartido\Alta Ciale\2018\web\ciale-master\web\sugeridosexcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="213">
   <si>
     <t>CONCEPT PLUS</t>
   </si>
@@ -660,12 +660,15 @@
   </si>
   <si>
     <t>SIN FP Y &lt;30% PF o P. Año Y  MOCHO</t>
+  </si>
+  <si>
+    <t>SIN FP Y MOCHO Y &lt;30% PF o P. Año</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1045,9 +1048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AN81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N68" sqref="N68:U68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4170,36 +4173,30 @@
         <v>189</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W68" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4757,27 +4754,24 @@
         <v>211</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R79" s="1" t="s">
         <v>10</v>
       </c>
     </row>
